--- a/biology/Médecine/Keith_Ablow/Keith_Ablow.xlsx
+++ b/biology/Médecine/Keith_Ablow/Keith_Ablow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Keith Ablow, né le 23 novembre 1961 à Marblehead, dans le Massachusetts, est un psychiatre et un écrivain américain, auteur de roman policier.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de parents juifs, il fait ses études supérieures à l'université Brown, où il obtient en 1983 un baccalauréat universitaire en neurosciences. En 1987, il décroche un doctorat en médecine de l'université Johns-Hopkins[1]. Il occupe ensuite d'importants postes de direction dans le milieu médical de Boston.
-Alors qu'il est étudiant en médecine, il s'intéresse à l'écriture et travaille comme reporter pour Newsweek et signe des articles pour le Washington Post. le Baltimore Sun et le USA Today[2]. Après l'obtention de ses diplômes, il multiplie les articles et les chroniques dans les journaux où il a déjà signé des artlcles, mais également dans le New York Times et le U.S. News &amp; World Report. Il fait aussi des apparitions remarquées à la télévision américain, notamment au The Oprah Winfrey Show.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de parents juifs, il fait ses études supérieures à l'université Brown, où il obtient en 1983 un baccalauréat universitaire en neurosciences. En 1987, il décroche un doctorat en médecine de l'université Johns-Hopkins. Il occupe ensuite d'importants postes de direction dans le milieu médical de Boston.
+Alors qu'il est étudiant en médecine, il s'intéresse à l'écriture et travaille comme reporter pour Newsweek et signe des articles pour le Washington Post. le Baltimore Sun et le USA Today. Après l'obtention de ses diplômes, il multiplie les articles et les chroniques dans les journaux où il a déjà signé des artlcles, mais également dans le New York Times et le U.S. News &amp; World Report. Il fait aussi des apparitions remarquées à la télévision américain, notamment au The Oprah Winfrey Show.
 En 1998, il publie le premier d'une série de six romans policiers ayant pour héros le psychiatre légiste Frank Clevenger, dont les enquêtes se déroulent au Massachusetts. 
 </t>
         </is>
@@ -546,16 +560,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Frank Clevenger
-Denial (1998) Publié en français sous le titre L'Amour à mort, Le Grand livre du mois (1998)  (ISBN 2-7028-3077-3), Payot &amp; Rivages, coll. « Payot suspense » (1999)  (ISBN 2-228-89205-X), réédition Payot &amp; Rivages, coll. « Payot suspense » (2002)  (ISBN 2-228-89667-5), réédition Pocket, coll. « Presses-Pocket » no 13107 (2009)  (ISBN 978-2-266-16606-5)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Frank Clevenger</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Denial (1998) Publié en français sous le titre L'Amour à mort, Le Grand livre du mois (1998)  (ISBN 2-7028-3077-3), Payot &amp; Rivages, coll. « Payot suspense » (1999)  (ISBN 2-228-89205-X), réédition Payot &amp; Rivages, coll. « Payot suspense » (2002)  (ISBN 2-228-89667-5), réédition Pocket, coll. « Presses-Pocket » no 13107 (2009)  (ISBN 978-2-266-16606-5)
 Projection (1999) Publié en français sous le titre Psycho killer, Éditions du Rocher, coll. « Thriller » (2000)  (ISBN 2-268-03741-X), réédition Le Grand livre du mois (2000)  (ISBN 2-7028-6151-2), réédition Pocket, coll. « Presses-Pocket » no 11346 (2003)  (ISBN 2-266-11399-2)
 Compulsion (2002) Publié en français sous le titre Compulsion, Éditions du Rocher, coll. « Thriller » (2003)  (ISBN 2-268-04749-0), réédition Le Grand livre du mois (2003)  (ISBN 2-7028-8578-0), réédition Pocket, coll. « Presses-Pocket » no 12197 (2004)  (ISBN 2-266-14213-5)
 Psychopath (2003) Publié en français sous le titre Psychopathe, Éditions du Rocher, coll. « Thriller » (2004)  (ISBN 2-268-05230-3), réédition Gallimard, coll. « Folio policier » no 454 (2007)  (ISBN 978-2-07-033853-5)
 Murder Suicide (2004) Publié en français sous le titre Suicidaire, Éditions du Rocher, coll. « Thriller » (2006)  (ISBN 2-268-05679-1), réédition Gallimard, coll. « Folio policier » no 499 (2008)  (ISBN 978-2-07-033945-7)
-The Architect (2005) Publié en français sous le titre L'Architecte, Éditions du Rocher, coll. « Thriller » (2007)  (ISBN 978-2-268-06124-5), réédition Gallimard, coll. « Folio policier » no 546 (2009)  (ISBN 978-2-07-034887-9)
-Autres ouvrages[3]
-Medical School: Getting In, Staying In, Staying Human (1987)
+The Architect (2005) Publié en français sous le titre L'Architecte, Éditions du Rocher, coll. « Thriller » (2007)  (ISBN 978-2-268-06124-5), réédition Gallimard, coll. « Folio policier » no 546 (2009)  (ISBN 978-2-07-034887-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Keith_Ablow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Keith_Ablow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres ouvrages[3]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Medical School: Getting In, Staying In, Staying Human (1987)
 How to Cope with Depression (1989)
 To Wrestle With Demons: A Psychiatrist Struggles to Understand His Patients and Himself (1992)
 Anatomy of a Psychiatric Illness: Healing the Mind and Brain (1993)
@@ -568,31 +624,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Keith_Ablow</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Keith_Ablow</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251).</t>
         </is>
